--- a/templates/report/dashboardnext.xlsx
+++ b/templates/report/dashboardnext.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB76EE9-A476-4633-9CCB-8A54F38E99B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2E1C24-806F-4BB0-B47B-9C4F7572C0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Reservas</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Opción de check-in</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -121,23 +124,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -157,22 +149,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -563,59 +562,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35" style="2" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35" style="2" customWidth="1"/>
-    <col min="7" max="8" width="13.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="62.5703125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="24.85546875" style="2"/>
+    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
+    <col min="3" max="5" width="13.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="62.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="24.85546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/templates/report/dashboardnext.xlsx
+++ b/templates/report/dashboardnext.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2E1C24-806F-4BB0-B47B-9C4F7572C0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCD8044-9289-4C62-8E64-832D1A3DC82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboardnext" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dashboardnext!$A$2:$I$2</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -149,7 +152,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -165,11 +168,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -568,7 +570,7 @@
     <col min="6" max="6" width="35" style="1" customWidth="1"/>
     <col min="7" max="8" width="13.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="62.5703125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="24.85546875" style="7"/>
+    <col min="10" max="16384" width="24.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -576,7 +578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="6" t="s">
@@ -624,6 +626,7 @@
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A2:I2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
